--- a/data/trans_orig/IP3107-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP3107-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8ED6373-B9FB-4C4B-858C-68D32A98FFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA9BDC63-6736-44B2-8535-F7364355A629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0E67E15A-BC0F-4C7F-B7DC-E3C6AE9D21C9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0274960D-89AA-4559-9A91-F4C082561550}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="682">
   <si>
     <t>Menores según la frecuencia se lava los dientes por la mañana en 2007 (Tasa respuesta: 85,84%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -76,2011 +76,1993 @@
     <t>28,91%</t>
   </si>
   <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
   </si>
   <si>
     <t>19,41%</t>
   </si>
   <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>3 o 4 veces a la semana</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia se lava los dientes por la mañana en 2012 (Tasa respuesta: 83,71%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia se lava los dientes por la mañana en 2016 (Tasa respuesta: 90,08%)</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>3 o 4 veces a la semana</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>2,62%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia se lava los dientes por la mañana en 2012 (Tasa respuesta: 83,71%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
   </si>
   <si>
     <t>9,76%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia se lava los dientes por la mañana en 2015 (Tasa respuesta: 90,08%)</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
     <t>6,89%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
   </si>
   <si>
     <t>84,11%</t>
@@ -2089,19 +2071,19 @@
     <t>81,49%</t>
   </si>
   <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
   </si>
   <si>
     <t>81,61%</t>
   </si>
   <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
   </si>
 </sst>
 </file>
@@ -2513,7 +2495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C504F47-646F-424A-932A-C2A0BA3C2FBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF83F39F-921B-4A08-B357-576110C9BB90}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3026,13 +3008,13 @@
         <v>7633</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,13 +3029,13 @@
         <v>7506</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -3062,10 +3044,10 @@
         <v>9825</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>82</v>
@@ -3286,10 +3268,10 @@
         <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3286,13 @@
         <v>3314</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3319,13 +3301,13 @@
         <v>3671</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -3334,13 +3316,13 @@
         <v>6985</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,13 +3337,13 @@
         <v>14805</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -3370,13 +3352,13 @@
         <v>8389</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>35</v>
@@ -3385,13 +3367,13 @@
         <v>23194</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3388,13 @@
         <v>4001</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -3421,13 +3403,13 @@
         <v>2955</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -3436,13 +3418,13 @@
         <v>6956</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,13 +3439,13 @@
         <v>120175</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>188</v>
@@ -3472,13 +3454,13 @@
         <v>118345</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>370</v>
@@ -3487,13 +3469,13 @@
         <v>238521</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,7 +3531,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3561,13 +3543,13 @@
         <v>8611</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -3576,13 +3558,13 @@
         <v>13041</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -3591,13 +3573,13 @@
         <v>21652</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,13 +3594,13 @@
         <v>5247</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -3696,10 +3678,10 @@
         <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3714,13 +3696,13 @@
         <v>4745</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -3729,13 +3711,13 @@
         <v>2420</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -3744,13 +3726,13 @@
         <v>7164</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,13 +3747,13 @@
         <v>105579</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>145</v>
@@ -3780,13 +3762,13 @@
         <v>88164</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>308</v>
@@ -3795,13 +3777,13 @@
         <v>193743</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,7 +3839,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3869,13 +3851,13 @@
         <v>23784</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>26</v>
@@ -3884,13 +3866,13 @@
         <v>19568</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="M28" s="7">
         <v>62</v>
@@ -3899,13 +3881,13 @@
         <v>43351</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,13 +3902,13 @@
         <v>4657</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -3935,13 +3917,13 @@
         <v>6115</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -3950,13 +3932,13 @@
         <v>10773</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,13 +3953,13 @@
         <v>8092</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>70</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -3986,13 +3968,13 @@
         <v>6812</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -4001,13 +3983,13 @@
         <v>14903</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,13 +4004,13 @@
         <v>7276</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>117</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>12</v>
@@ -4037,13 +4019,13 @@
         <v>9338</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>83</v>
       </c>
       <c r="M31" s="7">
         <v>23</v>
@@ -4052,13 +4034,13 @@
         <v>16614</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>44</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4055,13 @@
         <v>135968</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>183</v>
@@ -4088,13 +4070,13 @@
         <v>140412</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>380</v>
@@ -4103,13 +4085,13 @@
         <v>276379</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4159,13 @@
         <v>103176</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H34" s="7">
         <v>138</v>
@@ -4192,13 +4174,13 @@
         <v>92578</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>293</v>
@@ -4207,13 +4189,13 @@
         <v>195753</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4210,13 @@
         <v>20562</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>26</v>
@@ -4243,13 +4225,13 @@
         <v>17083</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>57</v>
@@ -4258,13 +4240,13 @@
         <v>37646</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,10 +4330,10 @@
         <v>259</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>260</v>
+        <v>116</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="M37" s="7">
         <v>61</v>
@@ -4360,13 +4342,13 @@
         <v>40706</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>264</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,13 +4363,13 @@
         <v>434150</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H38" s="7">
         <v>626</v>
@@ -4396,13 +4378,13 @@
         <v>421715</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M38" s="7">
         <v>1277</v>
@@ -4411,13 +4393,13 @@
         <v>855865</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,7 +4455,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4494,7 +4476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8686056-C473-48B5-86A6-FF384ED38089}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17ED87C-5334-458C-BAEF-7422118E8584}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4511,7 +4493,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4624,7 +4606,7 @@
         <v>43</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4633,13 +4615,13 @@
         <v>1558</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4648,13 +4630,13 @@
         <v>1558</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4651,13 @@
         <v>2036</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4684,13 +4666,13 @@
         <v>896</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4699,13 +4681,13 @@
         <v>2932</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,13 +4702,13 @@
         <v>3927</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4735,13 +4717,13 @@
         <v>688</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4750,13 +4732,13 @@
         <v>4615</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4771,13 +4753,13 @@
         <v>2005</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4786,13 +4768,13 @@
         <v>870</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>296</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4801,13 +4783,13 @@
         <v>2875</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>299</v>
+        <v>210</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4804,13 @@
         <v>14357</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -4837,13 +4819,13 @@
         <v>17510</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -4852,13 +4834,13 @@
         <v>31868</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,13 +4908,13 @@
         <v>15067</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -4941,13 +4923,13 @@
         <v>11635</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>314</v>
+        <v>247</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -4956,13 +4938,13 @@
         <v>26702</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>317</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4959,13 @@
         <v>4654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -4995,10 +4977,10 @@
         <v>256</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>123</v>
+        <v>315</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -5007,13 +4989,13 @@
         <v>8279</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>151</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5010,13 @@
         <v>14513</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -5046,10 +5028,10 @@
         <v>173</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M12" s="7">
         <v>29</v>
@@ -5058,13 +5040,13 @@
         <v>21432</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,13 +5061,13 @@
         <v>7753</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>333</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -5094,13 +5076,13 @@
         <v>5499</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>335</v>
+        <v>202</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -5109,13 +5091,13 @@
         <v>13252</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>157</v>
+        <v>331</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,13 +5112,13 @@
         <v>67104</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H14" s="7">
         <v>104</v>
@@ -5145,13 +5127,13 @@
         <v>75280</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M14" s="7">
         <v>199</v>
@@ -5160,13 +5142,13 @@
         <v>142384</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,13 +5216,13 @@
         <v>19790</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -5249,13 +5231,13 @@
         <v>15693</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -5264,13 +5246,13 @@
         <v>35484</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,13 +5267,13 @@
         <v>2571</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>357</v>
+        <v>260</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -5300,13 +5282,13 @@
         <v>9465</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -5315,13 +5297,13 @@
         <v>12036</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5318,13 @@
         <v>16813</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -5351,13 +5333,13 @@
         <v>16539</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M18" s="7">
         <v>48</v>
@@ -5366,13 +5348,13 @@
         <v>33352</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,10 +5372,10 @@
         <v>173</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -5402,13 +5384,13 @@
         <v>5002</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -5417,13 +5399,13 @@
         <v>17847</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>259</v>
+        <v>373</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,13 +5420,13 @@
         <v>138994</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H20" s="7">
         <v>201</v>
@@ -5453,13 +5435,13 @@
         <v>130979</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="M20" s="7">
         <v>403</v>
@@ -5468,13 +5450,13 @@
         <v>269974</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,7 +5512,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5542,13 +5524,13 @@
         <v>6625</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>389</v>
+        <v>257</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -5557,13 +5539,13 @@
         <v>4774</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -5572,13 +5554,13 @@
         <v>11399</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>395</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5593,13 +5575,13 @@
         <v>6123</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>174</v>
+        <v>391</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -5608,13 +5590,13 @@
         <v>5970</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
@@ -5623,13 +5605,13 @@
         <v>12093</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>403</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,13 +5626,13 @@
         <v>14764</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>285</v>
+        <v>211</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H24" s="7">
         <v>13</v>
@@ -5659,13 +5641,13 @@
         <v>8490</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>407</v>
+        <v>34</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="M24" s="7">
         <v>35</v>
@@ -5674,13 +5656,13 @@
         <v>23254</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5677,13 @@
         <v>5336</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>373</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -5710,13 +5692,13 @@
         <v>5454</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>255</v>
+        <v>408</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -5725,13 +5707,13 @@
         <v>10790</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>244</v>
+        <v>409</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,13 +5728,13 @@
         <v>103642</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H26" s="7">
         <v>153</v>
@@ -5761,13 +5743,13 @@
         <v>99891</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M26" s="7">
         <v>313</v>
@@ -5776,13 +5758,13 @@
         <v>203534</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,7 +5820,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5850,13 +5832,13 @@
         <v>9667</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -5865,13 +5847,13 @@
         <v>13073</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>428</v>
+        <v>255</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>354</v>
+        <v>124</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -5880,13 +5862,13 @@
         <v>22740</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>241</v>
+        <v>425</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>430</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,13 +5883,13 @@
         <v>3674</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -5916,13 +5898,13 @@
         <v>3862</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>434</v>
+        <v>239</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -5931,13 +5913,13 @@
         <v>7536</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>139</v>
+        <v>431</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>164</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +5934,13 @@
         <v>11228</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -5967,13 +5949,13 @@
         <v>6657</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>441</v>
+        <v>76</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="M30" s="7">
         <v>24</v>
@@ -5982,13 +5964,13 @@
         <v>17885</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>428</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +5985,13 @@
         <v>10018</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H31" s="7">
         <v>12</v>
@@ -6018,13 +6000,13 @@
         <v>9746</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>449</v>
+        <v>126</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
@@ -6033,13 +6015,13 @@
         <v>19764</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>452</v>
+        <v>164</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,13 +6036,13 @@
         <v>139080</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H32" s="7">
         <v>178</v>
@@ -6069,13 +6051,13 @@
         <v>136533</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="M32" s="7">
         <v>366</v>
@@ -6084,13 +6066,13 @@
         <v>275613</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>461</v>
+        <v>227</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6140,13 @@
         <v>51149</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>253</v>
+        <v>455</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="H34" s="7">
         <v>70</v>
@@ -6173,13 +6155,13 @@
         <v>46733</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>211</v>
+        <v>457</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>465</v>
+        <v>156</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="M34" s="7">
         <v>145</v>
@@ -6188,13 +6170,13 @@
         <v>97882</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6209,13 +6191,13 @@
         <v>19059</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>324</v>
+        <v>136</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H35" s="7">
         <v>36</v>
@@ -6224,13 +6206,13 @@
         <v>23816</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>182</v>
+        <v>465</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="M35" s="7">
         <v>62</v>
@@ -6239,13 +6221,13 @@
         <v>42875</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>433</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6260,13 +6242,13 @@
         <v>61246</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>475</v>
+        <v>388</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H36" s="7">
         <v>56</v>
@@ -6275,13 +6257,13 @@
         <v>39293</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>388</v>
+        <v>472</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M36" s="7">
         <v>141</v>
@@ -6290,13 +6272,13 @@
         <v>100539</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>128</v>
+        <v>385</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6311,13 +6293,13 @@
         <v>37957</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>130</v>
+        <v>477</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H37" s="7">
         <v>38</v>
@@ -6326,13 +6308,13 @@
         <v>26571</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>483</v>
+        <v>171</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M37" s="7">
         <v>92</v>
@@ -6341,13 +6323,13 @@
         <v>64528</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>486</v>
+        <v>371</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>488</v>
+        <v>455</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6362,13 +6344,13 @@
         <v>463177</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="H38" s="7">
         <v>656</v>
@@ -6377,28 +6359,28 @@
         <v>460194</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="M38" s="7">
         <v>1317</v>
       </c>
       <c r="N38" s="7">
-        <v>923370</v>
+        <v>923371</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,7 +6422,7 @@
         <v>1757</v>
       </c>
       <c r="N39" s="7">
-        <v>1229194</v>
+        <v>1229195</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>58</v>
@@ -6454,7 +6436,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -6475,7 +6457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22431599-3FFC-4FAC-912E-B26AA46233F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E639EC29-D761-4D48-9C68-EFD86223C224}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6492,7 +6474,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6599,13 +6581,13 @@
         <v>3086</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>499</v>
+        <v>425</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -6614,13 +6596,13 @@
         <v>4154</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -6629,13 +6611,13 @@
         <v>7240</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,7 +6638,7 @@
         <v>43</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>393</v>
+        <v>499</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6671,7 +6653,7 @@
         <v>43</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6686,7 +6668,7 @@
         <v>43</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6701,13 +6683,13 @@
         <v>3097</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>508</v>
+        <v>199</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>134</v>
+        <v>501</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6716,13 +6698,13 @@
         <v>3320</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>510</v>
+        <v>82</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -6731,13 +6713,13 @@
         <v>6416</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6752,13 +6734,13 @@
         <v>2271</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>263</v>
+        <v>509</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6773,7 +6755,7 @@
         <v>43</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -6782,13 +6764,13 @@
         <v>2271</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6803,13 +6785,13 @@
         <v>12320</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -6818,13 +6800,13 @@
         <v>13439</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
@@ -6833,13 +6815,13 @@
         <v>25759</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6907,13 +6889,13 @@
         <v>5612</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>531</v>
+        <v>394</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>337</v>
+        <v>524</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -6922,13 +6904,13 @@
         <v>3500</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>388</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -6937,13 +6919,13 @@
         <v>9112</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>534</v>
+        <v>463</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>536</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6958,13 +6940,13 @@
         <v>2202</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>93</v>
+        <v>528</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -6973,13 +6955,13 @@
         <v>2076</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -6988,13 +6970,13 @@
         <v>4278</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7009,13 +6991,13 @@
         <v>8120</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>536</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -7024,13 +7006,13 @@
         <v>3242</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>446</v>
+        <v>539</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -7039,13 +7021,13 @@
         <v>11362</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>290</v>
+        <v>543</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7060,13 +7042,13 @@
         <v>9622</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -7075,13 +7057,13 @@
         <v>14193</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -7090,13 +7072,13 @@
         <v>23815</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>467</v>
+        <v>355</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7111,13 +7093,13 @@
         <v>85724</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H14" s="7">
         <v>112</v>
@@ -7126,13 +7108,13 @@
         <v>77568</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="M14" s="7">
         <v>227</v>
@@ -7141,13 +7123,13 @@
         <v>163293</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>564</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7215,13 +7197,13 @@
         <v>8489</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>163</v>
+        <v>563</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -7230,13 +7212,13 @@
         <v>14953</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>475</v>
+        <v>564</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>288</v>
+        <v>565</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -7245,13 +7227,13 @@
         <v>23442</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>568</v>
+        <v>178</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7266,13 +7248,13 @@
         <v>6812</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>357</v>
+        <v>440</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>485</v>
+        <v>569</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -7281,13 +7263,13 @@
         <v>3275</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>572</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -7296,13 +7278,13 @@
         <v>10088</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>336</v>
+        <v>572</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>573</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7323,7 +7305,7 @@
         <v>575</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>576</v>
+        <v>544</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -7332,13 +7314,13 @@
         <v>7382</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M18" s="7">
         <v>28</v>
@@ -7347,13 +7329,13 @@
         <v>17940</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7368,10 +7350,10 @@
         <v>11142</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>581</v>
@@ -7398,13 +7380,13 @@
         <v>27142</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>163</v>
+        <v>585</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>219</v>
+        <v>586</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>585</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7419,7 +7401,7 @@
         <v>166390</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>586</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>587</v>
@@ -7511,7 +7493,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7523,7 +7505,7 @@
         <v>6392</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>595</v>
@@ -7541,10 +7523,10 @@
         <v>597</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>598</v>
+        <v>242</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -7553,13 +7535,13 @@
         <v>11526</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7580,7 +7562,7 @@
         <v>43</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>602</v>
+        <v>534</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -7589,13 +7571,13 @@
         <v>1725</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>604</v>
+        <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -7604,13 +7586,13 @@
         <v>1725</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>206</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7625,13 +7607,13 @@
         <v>9070</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>484</v>
+        <v>605</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>608</v>
+        <v>469</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -7640,13 +7622,13 @@
         <v>4726</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -7655,13 +7637,13 @@
         <v>13796</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>611</v>
+        <v>240</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>612</v>
+        <v>241</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7676,13 +7658,13 @@
         <v>8470</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>182</v>
+        <v>610</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -7691,13 +7673,13 @@
         <v>6927</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>618</v>
+        <v>249</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -7706,13 +7688,13 @@
         <v>15396</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>248</v>
+        <v>613</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>256</v>
+        <v>438</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>619</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7727,13 +7709,13 @@
         <v>133776</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="H26" s="7">
         <v>200</v>
@@ -7742,13 +7724,13 @@
         <v>122087</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="M26" s="7">
         <v>397</v>
@@ -7757,13 +7739,13 @@
         <v>255863</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7819,7 +7801,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7831,13 +7813,13 @@
         <v>11908</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>464</v>
+        <v>624</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -7849,10 +7831,10 @@
         <v>251</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>415</v>
+        <v>625</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="M28" s="7">
         <v>30</v>
@@ -7861,13 +7843,13 @@
         <v>20964</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>438</v>
+        <v>289</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>632</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7882,13 +7864,13 @@
         <v>2554</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>635</v>
+        <v>86</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -7897,13 +7879,13 @@
         <v>2024</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>636</v>
+        <v>137</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>637</v>
+        <v>126</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -7912,13 +7894,13 @@
         <v>4578</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>639</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7933,13 +7915,13 @@
         <v>5954</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>640</v>
+        <v>405</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -7948,13 +7930,13 @@
         <v>2681</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>644</v>
+        <v>580</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -7963,13 +7945,13 @@
         <v>8635</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7984,13 +7966,13 @@
         <v>8838</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>647</v>
+        <v>128</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>617</v>
+        <v>200</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="H31" s="7">
         <v>18</v>
@@ -7999,13 +7981,13 @@
         <v>13115</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>218</v>
+        <v>637</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>280</v>
+        <v>639</v>
       </c>
       <c r="M31" s="7">
         <v>31</v>
@@ -8014,13 +7996,13 @@
         <v>21953</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>534</v>
+        <v>641</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>507</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8035,13 +8017,13 @@
         <v>156772</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="H32" s="7">
         <v>211</v>
@@ -8050,13 +8032,13 @@
         <v>158183</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="M32" s="7">
         <v>429</v>
@@ -8065,13 +8047,13 @@
         <v>314955</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8139,13 +8121,13 @@
         <v>35487</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>124</v>
+        <v>494</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>285</v>
+        <v>651</v>
       </c>
       <c r="H34" s="7">
         <v>56</v>
@@ -8154,13 +8136,13 @@
         <v>36797</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>662</v>
+        <v>436</v>
       </c>
       <c r="M34" s="7">
         <v>107</v>
@@ -8169,13 +8151,13 @@
         <v>72284</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>130</v>
+        <v>655</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>44</v>
+        <v>656</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8190,13 +8172,13 @@
         <v>11568</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>664</v>
+        <v>405</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="H35" s="7">
         <v>15</v>
@@ -8205,13 +8187,13 @@
         <v>9101</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>667</v>
+        <v>27</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>668</v>
+        <v>534</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>669</v>
+        <v>634</v>
       </c>
       <c r="M35" s="7">
         <v>32</v>
@@ -8220,13 +8202,13 @@
         <v>20668</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>177</v>
+        <v>659</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>132</v>
+        <v>661</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8244,10 +8226,10 @@
         <v>24</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>543</v>
+        <v>662</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>671</v>
+        <v>406</v>
       </c>
       <c r="H36" s="7">
         <v>32</v>
@@ -8256,13 +8238,13 @@
         <v>21350</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>165</v>
+        <v>663</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>398</v>
+        <v>664</v>
       </c>
       <c r="M36" s="7">
         <v>85</v>
@@ -8271,13 +8253,13 @@
         <v>58150</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>433</v>
+        <v>665</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>161</v>
+        <v>666</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8292,13 +8274,13 @@
         <v>40343</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>351</v>
+        <v>166</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>673</v>
+        <v>240</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="H37" s="7">
         <v>76</v>
@@ -8307,13 +8289,13 @@
         <v>50235</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="M37" s="7">
         <v>133</v>
@@ -8322,13 +8304,13 @@
         <v>90578</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>45</v>
+        <v>673</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>679</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8343,13 +8325,13 @@
         <v>554982</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>658</v>
+        <v>420</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="H38" s="7">
         <v>769</v>
@@ -8358,13 +8340,13 @@
         <v>517189</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="M38" s="7">
         <v>1558</v>
@@ -8373,13 +8355,13 @@
         <v>1072172</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8435,7 +8417,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
